--- a/GP SHOP.xlsx
+++ b/GP SHOP.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351918E4-934F-4F80-A6EE-FF1342EF9DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestCase" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Report" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Test Metrics" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Bug Report" sheetId="4" r:id="rId7"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Metrics" sheetId="3" r:id="rId3"/>
+    <sheet name="Bug Report" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1472,141 +1491,182 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Inconsolata"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <color theme="0"/>
+      <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Inconsolata"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1615,7 +1675,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1715,7 +1775,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1729,8 +1795,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1740,236 +1808,206 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="17" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1999,17 +2037,19 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -2017,18 +2057,77 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Report!$M$7:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Not Tested</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>out of scope</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Report!$N$7:$N$10</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CF7-44E6-B8E5-6E3D9027ACD6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="853428468"/>
         <c:axId val="1182893886"/>
@@ -2071,7 +2170,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2084,9 +2183,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1182893886"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1182893886"/>
@@ -2162,9 +2267,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="853428468"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2182,20 +2290,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2204,9 +2316,15 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4552950" cy="2809875"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2215,7 +2333,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2224,16 +2342,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2423,1962 +2533,1970 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M15:M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.63"/>
-    <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="4" max="4" width="16.13"/>
-    <col customWidth="1" min="5" max="5" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
-    <col customWidth="1" min="7" max="7" width="14.25"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <f>COUNTIF(I8:I473, "PASS")</f>
         <v>52</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <f>COUNTIF(I8:I473, "FAIL")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <f>COUNTIF(I8:I473, "not tested")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="G4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <f>COUNTIF(I8:I473, "out of scope")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <f>sum(H1:H4)</f>
+      <c r="H5" s="3">
+        <f>SUM(H1:H4)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="19">
-        <v>4.5612398741E10</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="17">
+        <v>45612398741</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="25">
-        <v>4.587912467E9</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="22" t="s">
+      <c r="D20" s="23">
+        <v>4587912467</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="22">
-        <v>1.734301291E9</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="20">
+        <v>1734301291</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="19">
-        <v>1.734301291E9</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="17">
+        <v>1734301291</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="22">
-        <v>1234.0</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="20">
+        <v>1234</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="19">
-        <v>123.0</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="17">
+        <v>123</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="19">
-        <v>4789.0</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="17">
+        <v>4789</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17" t="s">
+      <c r="H38" s="14"/>
+      <c r="I38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="20" t="s">
+      <c r="H40" s="14"/>
+      <c r="I40" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="19">
-        <v>123456.0</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="17">
+        <v>123456</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="20" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="20" t="s">
+      <c r="H45" s="14"/>
+      <c r="I45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="14" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17" t="s">
+      <c r="H46" s="14"/>
+      <c r="I46" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17" t="s">
+      <c r="H47" s="14"/>
+      <c r="I47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17" t="s">
+      <c r="H48" s="14"/>
+      <c r="I48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17" t="s">
+      <c r="H50" s="14"/>
+      <c r="I50" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17" t="s">
+      <c r="H52" s="14"/>
+      <c r="I52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17" t="s">
+      <c r="H54" s="14"/>
+      <c r="I54" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="14" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17" t="s">
+      <c r="H55" s="14"/>
+      <c r="I55" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="19">
-        <v>4.78589412E8</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="D56" s="17">
+        <v>478589412</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="20" t="s">
+      <c r="H56" s="14"/>
+      <c r="I56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D57" s="22">
-        <v>1.76812446E8</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="20">
+        <v>176812446</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="20" t="s">
+      <c r="H57" s="14"/>
+      <c r="I57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="J57" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17" t="s">
+      <c r="H58" s="14"/>
+      <c r="I58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="19">
-        <v>1.734301291E9</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="17">
+        <v>1734301291</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17" t="s">
+      <c r="H60" s="14"/>
+      <c r="I60" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D62" s="19">
-        <v>1234.0</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="17">
+        <v>1234</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="16"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="19">
-        <v>123.0</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="D63" s="17">
+        <v>123</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17" t="s">
+      <c r="H63" s="14"/>
+      <c r="I63" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="16"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17" t="s">
+      <c r="H64" s="14"/>
+      <c r="I64" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17" t="s">
+      <c r="H65" s="14"/>
+      <c r="I65" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="16"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17" t="s">
+      <c r="H66" s="14"/>
+      <c r="I66" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="16"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="28" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17" t="s">
+      <c r="H67" s="14"/>
+      <c r="I67" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D68" s="19">
-        <v>3754.0</v>
-      </c>
-      <c r="E68" s="28" t="s">
+      <c r="D68" s="17">
+        <v>3754</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17" t="s">
+      <c r="H68" s="14"/>
+      <c r="I68" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="J68" s="14"/>
+    </row>
+    <row r="69" spans="1:10" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="28" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="16"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="13" t="s">
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="28" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="29" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="16"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="J70" s="14"/>
+    </row>
+    <row r="71" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="28" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="29" t="s">
+      <c r="H71" s="14"/>
+      <c r="I71" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="16"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="13" t="s">
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="28" t="s">
+      <c r="D72" s="14"/>
+      <c r="E72" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="29" t="s">
+      <c r="H72" s="14"/>
+      <c r="I72" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J72" s="16"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4386,804 +4504,831 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J10"/>
-    <hyperlink r:id="rId2" ref="J11"/>
-    <hyperlink r:id="rId3" ref="J12"/>
-    <hyperlink r:id="rId4" ref="J13"/>
-    <hyperlink r:id="rId5" ref="J15"/>
-    <hyperlink r:id="rId6" ref="J21"/>
-    <hyperlink r:id="rId7" ref="J40"/>
-    <hyperlink r:id="rId8" ref="J45"/>
-    <hyperlink r:id="rId9" ref="J56"/>
-    <hyperlink r:id="rId10" ref="J57"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J56" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J57" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C3:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="14.25"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="32" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="34" t="s">
+      <c r="N5" s="60"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34" t="s">
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="39">
-        <f>sum(G17)</f>
+      <c r="N7" s="34">
+        <f>SUM(G17)</f>
         <v>52</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="38" t="s">
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="39">
-        <f>sum(H17)</f>
+      <c r="N8" s="34">
+        <f>SUM(H17)</f>
         <v>12</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="34" t="s">
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="41" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="39">
-        <f>sum(I17)</f>
+      <c r="N9" s="34">
+        <f>SUM(I17)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="34" t="s">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="41" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="N10" s="39">
-        <f>sum(J17)</f>
+      <c r="N10" s="34">
+        <f>SUM(J17)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43" t="s">
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="G15" s="47">
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="40">
         <f>TestCase!H1</f>
         <v>52</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="41">
         <f>TestCase!H2</f>
         <v>12</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="40">
         <f>TestCase!H3</f>
         <v>1</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="40">
         <f>TestCase!H4</f>
         <v>0</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="40">
         <f>TestCase!H5</f>
         <v>65</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="G17" s="52">
-        <f t="shared" ref="G17:K17" si="1">sum(G15)</f>
+      <c r="G17" s="44">
+        <f t="shared" ref="G17:K17" si="0">SUM(G15)</f>
         <v>52</v>
       </c>
-      <c r="H17" s="52">
-        <f t="shared" si="1"/>
+      <c r="H17" s="44">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I17" s="52">
-        <f t="shared" si="1"/>
+      <c r="I17" s="44">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="52">
-        <f t="shared" si="1"/>
+      <c r="J17" s="44">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="52">
-        <f t="shared" si="1"/>
+      <c r="K17" s="44">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="32" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="32" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="30"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="53" t="s">
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="30"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="53" t="s">
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="E15:F16"/>
     <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="22.63"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="30"/>
-      <c r="C5" s="55" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="28"/>
+      <c r="C5" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="30"/>
-      <c r="C7" s="56" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="66" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="30"/>
-      <c r="C8" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="59" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="28"/>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>353</v>
       </c>
-      <c r="F8" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="60"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="30"/>
-      <c r="C9" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="58" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="47">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="28"/>
+      <c r="C9" s="47">
+        <v>2</v>
+      </c>
+      <c r="D9" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="F9" s="58">
-        <v>7.0</v>
-      </c>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="30"/>
-      <c r="C10" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="47">
+        <v>7</v>
+      </c>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="28"/>
+      <c r="C10" s="47">
+        <v>3</v>
+      </c>
+      <c r="D10" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="58">
-        <v>65.0</v>
-      </c>
-      <c r="G10" s="61"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="30"/>
-      <c r="C11" s="58">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="47">
+        <v>65</v>
+      </c>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="28"/>
+      <c r="C11" s="47">
+        <v>4</v>
+      </c>
+      <c r="D11" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="58">
-        <v>64.0</v>
-      </c>
-      <c r="G11" s="61"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="47">
+        <v>64</v>
+      </c>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="49">
+        <v>5</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="62">
-        <v>52.0</v>
-      </c>
-      <c r="G12" s="63"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="62">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="62" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="49">
+        <v>52</v>
+      </c>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="49">
+        <v>6</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="62">
-        <v>12.0</v>
-      </c>
-      <c r="G13" s="63"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="62">
-        <v>7.0</v>
-      </c>
-      <c r="D14" s="62" t="s">
+      <c r="E13" s="56"/>
+      <c r="F13" s="49">
+        <v>12</v>
+      </c>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="49">
+        <v>7</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="F14" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="63"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="62">
-        <v>8.0</v>
-      </c>
-      <c r="D15" s="62" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="49">
+        <v>8</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="63"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="62" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="49">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="E18" s="66">
-        <f>sum(64/65)*100</f>
-        <v>98.46153846</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="62" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="49">
+        <f>SUM(64/65)*100</f>
+        <v>98.461538461538467</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="E19" s="66">
-        <f>sum(1/65)*100</f>
-        <v>1.538461538</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="62" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="49">
+        <f>SUM(1/65)*100</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="66">
-        <f>sum(52/64)*100</f>
+      <c r="D20" s="56"/>
+      <c r="E20" s="49">
+        <f>SUM(52/64)*100</f>
         <v>81.25</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="62" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="E21" s="62">
-        <f>sum(12/64)*100</f>
+      <c r="D21" s="56"/>
+      <c r="E21" s="49">
+        <f>SUM(12/64)*100</f>
         <v>18.75</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="62" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="E22" s="66">
-        <f>sum(0/64)*100</f>
+      <c r="D22" s="56"/>
+      <c r="E22" s="49">
+        <f>SUM(0/64)*100</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -5194,564 +5339,570 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="37.5"/>
-    <col customWidth="1" min="6" max="6" width="15.25"/>
-    <col customWidth="1" min="7" max="7" width="16.5"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="67" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="67" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="67" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="67" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="67" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="67" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="67" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="52" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink r:id="rId2" ref="G6"/>
-    <hyperlink r:id="rId3" ref="G8"/>
-    <hyperlink r:id="rId4" ref="G10"/>
-    <hyperlink r:id="rId5" ref="G12"/>
-    <hyperlink r:id="rId6" ref="G14"/>
-    <hyperlink r:id="rId7" ref="G16"/>
-    <hyperlink r:id="rId8" ref="G20"/>
-    <hyperlink r:id="rId9" ref="G22"/>
-    <hyperlink r:id="rId10" ref="G24"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>